--- a/lista.xlsx
+++ b/lista.xlsx
@@ -394,9 +394,6 @@
     <t>No.</t>
   </si>
   <si>
-    <t>NOMBRE COLABORADOR</t>
-  </si>
-  <si>
     <t>CARGO</t>
   </si>
   <si>
@@ -410,6 +407,9 @@
   </si>
   <si>
     <t>SERIAL</t>
+  </si>
+  <si>
+    <t>NOMBRE_COLABORADOR</t>
   </si>
 </sst>
 </file>
@@ -809,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -831,23 +831,23 @@
         <v>125</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:8">
